--- a/data/trans_orig/P63-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P63-Clase-trans_orig.xlsx
@@ -1758,19 +1758,19 @@
         <v>1062343</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1034105</v>
+        <v>1030575</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1090943</v>
+        <v>1090252</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7808225094547987</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7600673354000608</v>
+        <v>0.7574724880312516</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8018435054925556</v>
+        <v>0.8013351714192912</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1073</v>
@@ -1779,19 +1779,19 @@
         <v>1100174</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1052515</v>
+        <v>1058828</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1145819</v>
+        <v>1149791</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4683717063662047</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.448081777224557</v>
+        <v>0.4507694168580195</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4878036895656022</v>
+        <v>0.4894946516597855</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2146</v>
@@ -1800,19 +1800,19 @@
         <v>2162518</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2110002</v>
+        <v>2107412</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2222171</v>
+        <v>2227108</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5829708467065119</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5688136032189072</v>
+        <v>0.5681154218055747</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5990521585349378</v>
+        <v>0.6003831745700969</v>
       </c>
     </row>
     <row r="23">
@@ -1829,19 +1829,19 @@
         <v>298201</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>269601</v>
+        <v>270292</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>326439</v>
+        <v>329969</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2191774905452013</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1981564945074444</v>
+        <v>0.1986648285807091</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2399326645999392</v>
+        <v>0.2425275119687486</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1238</v>
@@ -1850,19 +1850,19 @@
         <v>1248760</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1203115</v>
+        <v>1199143</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1296419</v>
+        <v>1290106</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5316282936337953</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.512196310434398</v>
+        <v>0.5105053483402145</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.551918222775443</v>
+        <v>0.5492305831419805</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1544</v>
@@ -1871,19 +1871,19 @@
         <v>1546960</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1487307</v>
+        <v>1482370</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1599476</v>
+        <v>1602066</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4170291532934882</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4009478414650621</v>
+        <v>0.399616825429903</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4311863967810928</v>
+        <v>0.4318845781944252</v>
       </c>
     </row>
     <row r="24">
@@ -3231,19 +3231,19 @@
         <v>1727091</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1696249</v>
+        <v>1693302</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1755861</v>
+        <v>1755497</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8661556538481888</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8506878782369154</v>
+        <v>0.8492098744125979</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8805842615827207</v>
+        <v>0.880401813656523</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1365</v>
@@ -3252,19 +3252,19 @@
         <v>1486051</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1431285</v>
+        <v>1432556</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1538330</v>
+        <v>1537643</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5725705905831617</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5514691868879544</v>
+        <v>0.5519591081595822</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5927134570027677</v>
+        <v>0.5924486325884248</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2965</v>
@@ -3273,19 +3273,19 @@
         <v>3213142</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3151376</v>
+        <v>3150711</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3276393</v>
+        <v>3282730</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7001262052529582</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6866678362140429</v>
+        <v>0.6865228863188024</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7139083380171233</v>
+        <v>0.7152892048171289</v>
       </c>
     </row>
     <row r="23">
@@ -3302,19 +3302,19 @@
         <v>266882</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>238112</v>
+        <v>238476</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>297724</v>
+        <v>300671</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1338443461518112</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1194157384172792</v>
+        <v>0.1195981863434769</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1493121217630845</v>
+        <v>0.1507901255874019</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1044</v>
@@ -3323,19 +3323,19 @@
         <v>1109352</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1057073</v>
+        <v>1057760</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1164118</v>
+        <v>1162847</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4274294094168382</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4072865429972323</v>
+        <v>0.4075513674115749</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4485308131120456</v>
+        <v>0.4480408918404177</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1309</v>
@@ -3344,19 +3344,19 @@
         <v>1376233</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1312982</v>
+        <v>1306645</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1437999</v>
+        <v>1438664</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2998737947470418</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2860916619828768</v>
+        <v>0.2847107951828711</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.313332163785957</v>
+        <v>0.3134771136811978</v>
       </c>
     </row>
     <row r="24">
@@ -4704,19 +4704,19 @@
         <v>1676255</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1645529</v>
+        <v>1642105</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1705817</v>
+        <v>1708037</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8537510771990993</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8381017677156796</v>
+        <v>0.836358025753871</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8688075887257591</v>
+        <v>0.8699384136498517</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1322</v>
@@ -4725,19 +4725,19 @@
         <v>1413352</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1364351</v>
+        <v>1366277</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1467963</v>
+        <v>1461790</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.566388281703755</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5467513282608926</v>
+        <v>0.547523142167446</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5882731127109038</v>
+        <v>0.585799288440092</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2951</v>
@@ -4746,19 +4746,19 @@
         <v>3089607</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3025512</v>
+        <v>3023557</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3156521</v>
+        <v>3157210</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6929270353741206</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6785519310279651</v>
+        <v>0.6781136257372674</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7079342329400713</v>
+        <v>0.7080888503588043</v>
       </c>
     </row>
     <row r="23">
@@ -4775,19 +4775,19 @@
         <v>287145</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>257583</v>
+        <v>255363</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>317871</v>
+        <v>321295</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1462489228009008</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1311924112742407</v>
+        <v>0.1300615863501484</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1618982322843204</v>
+        <v>0.163641974246129</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>992</v>
@@ -4796,19 +4796,19 @@
         <v>1082025</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1027414</v>
+        <v>1033587</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1131026</v>
+        <v>1129100</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.433611718296245</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.411726887289096</v>
+        <v>0.4142007115599079</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4532486717391074</v>
+        <v>0.452476857832554</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1264</v>
@@ -4817,19 +4817,19 @@
         <v>1369170</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1302256</v>
+        <v>1301567</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1433265</v>
+        <v>1435220</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3070729646258794</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2920657670599286</v>
+        <v>0.2919111496411956</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3214480689720347</v>
+        <v>0.3218863742627326</v>
       </c>
     </row>
     <row r="24">
@@ -6177,19 +6177,19 @@
         <v>1295698</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1253107</v>
+        <v>1251019</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1336292</v>
+        <v>1336882</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8452451337701953</v>
+        <v>0.8452451337701952</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8174611446592496</v>
+        <v>0.816098982303379</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8717266006239294</v>
+        <v>0.8721110554564436</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2082</v>
@@ -6198,19 +6198,19 @@
         <v>1301073</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1260177</v>
+        <v>1260736</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1345769</v>
+        <v>1345016</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6064608533640236</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5873979371179601</v>
+        <v>0.5876589018384805</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6272946512678144</v>
+        <v>0.6269434201812401</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3618</v>
@@ -6219,19 +6219,19 @@
         <v>2596771</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2531415</v>
+        <v>2537531</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2654792</v>
+        <v>2650549</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7059743680490227</v>
+        <v>0.7059743680490228</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6882061764399221</v>
+        <v>0.6898689242158678</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7217482333618368</v>
+        <v>0.7205948149641653</v>
       </c>
     </row>
     <row r="23">
@@ -6248,19 +6248,19 @@
         <v>237228</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>196634</v>
+        <v>196044</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>279819</v>
+        <v>281907</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1547548662298048</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1282733993760707</v>
+        <v>0.1278889445435561</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1825388553407505</v>
+        <v>0.183901017696621</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1159</v>
@@ -6269,19 +6269,19 @@
         <v>844281</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>799585</v>
+        <v>800338</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>885177</v>
+        <v>884618</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3935391466359765</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3727053487321855</v>
+        <v>0.3730565798187599</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4126020628820398</v>
+        <v>0.4123410981615195</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1271</v>
@@ -6290,19 +6290,19 @@
         <v>1081509</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1023488</v>
+        <v>1027731</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1146865</v>
+        <v>1140749</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2940256319509774</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.278251766638163</v>
+        <v>0.2794051850358346</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3117938235600778</v>
+        <v>0.3101310757841322</v>
       </c>
     </row>
     <row r="24">
